--- a/other/input/2021_wqx_data/spring_2021_wqx_data/SGS/KRBWQM_SGS_bottle_order_Spring_2021.xlsx
+++ b/other/input/2021_wqx_data/spring_2021_wqx_data/SGS/KRBWQM_SGS_bottle_order_Spring_2021.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="82">
   <si>
     <t>KPB</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>RM 44 - Mouth of Killey River</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -1773,33 +1779,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B185"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" style="9" customWidth="1"/>
     <col min="9" max="9" width="14" style="10" customWidth="1"/>
     <col min="10" max="10" width="14" style="18" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="18" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="10" customWidth="1"/>
     <col min="13" max="13" width="40.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>58</v>
       </c>
@@ -1839,8 +1848,14 @@
       <c r="M1" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="C3" s="12" t="s">
         <v>68</v>
@@ -1899,7 +1914,7 @@
       <c r="K3" s="17"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="C4" s="12" t="s">
         <v>68</v>
@@ -1923,7 +1938,7 @@
       <c r="K4" s="17"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>68</v>
@@ -1950,7 +1965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="C6" s="12" t="s">
         <v>68</v>
@@ -1971,14 +1986,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2011,7 +2026,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="C9" s="12" t="s">
         <v>68</v>
@@ -2035,7 +2050,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>68</v>
@@ -2059,7 +2074,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="C11" s="12" t="s">
         <v>68</v>
@@ -2082,7 +2097,7 @@
       <c r="J11" s="17"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>68</v>
@@ -2104,7 +2119,7 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="C13" s="12"/>
       <c r="E13" s="16">
@@ -2112,7 +2127,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -2145,7 +2160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="C15" s="12" t="s">
         <v>68</v>
@@ -2169,7 +2184,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="C16" s="12" t="s">
         <v>68</v>
